--- a/Running projects/NASTP II/Running Bill - NASTP Silicon Smoke Extract Fans BOQ.xlsx
+++ b/Running projects/NASTP II/Running Bill - NASTP Silicon Smoke Extract Fans BOQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NASTP II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E60A2F2-6619-4ECD-A0CA-B166C482EDAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EC6034-ACE5-43F1-89AB-7A9B86836F9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -271,22 +271,22 @@
     <t>FINAL BILL</t>
   </si>
   <si>
-    <t>GF S-2       (4000 CFM) @ 1'' ESP</t>
+    <t>GF S-2       (8000 CFM) @ 2'' ESP</t>
   </si>
   <si>
-    <t>FF S-2        (4000 CFM) @ 1'' ESP</t>
+    <t>FF S-2        (8000 CFM) @ 2'' ESP</t>
   </si>
   <si>
-    <t>GF S-3       (4000 CFM) @ 1'' ESP</t>
+    <t>GF S-3       (8000 CFM) @ 2'' ESP</t>
   </si>
   <si>
-    <t>FF S-3        (4000 CFM) @ 1'' ESP</t>
+    <t>FF S-3        (8000 CFM) @ 2'' ESP</t>
   </si>
   <si>
-    <t>GF S-4       (4000 CFM) @ 1'' ESP</t>
+    <t>GF S-4       (8000 CFM) @ 2'' ESP</t>
   </si>
   <si>
-    <t>FF S-4        (4000 CFM) @ 1'' ESP</t>
+    <t>FF S-4        (8000 CFM) @ 2'' ESP</t>
   </si>
 </sst>
 </file>
@@ -1381,16 +1381,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>744538</xdr:colOff>
+      <xdr:colOff>1049338</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1414,8 +1414,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="225425" y="263525"/>
-          <a:ext cx="938213" cy="692149"/>
+          <a:off x="530225" y="263525"/>
+          <a:ext cx="938213" cy="784225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1434,15 +1434,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>754875</xdr:colOff>
+      <xdr:colOff>1021575</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3172</xdr:rowOff>
+      <xdr:rowOff>79372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1333499</xdr:colOff>
+      <xdr:colOff>1343025</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104112</xdr:rowOff>
+      <xdr:rowOff>180312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1459,8 +1459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1173975" y="365122"/>
-          <a:ext cx="4664849" cy="643865"/>
+          <a:off x="1440675" y="441322"/>
+          <a:ext cx="4407675" cy="643865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1737,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D53A1A-A8B5-4B0A-8DAF-97BB219146F9}">
   <dimension ref="A11:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2151,7 +2151,7 @@
         <v>68</v>
       </c>
       <c r="C15" s="119">
-        <v>45803</v>
+        <v>45810</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="116" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -2258,8 +2258,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C31" sqref="C31"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7925,8 +7925,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C31" sqref="C31"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12984,6 +12984,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -12993,11 +12998,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.23622047244094491" bottom="0.55118110236220474" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -13014,10 +13014,10 @@
   </sheetPr>
   <dimension ref="A1:BL515"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C31" sqref="C31"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <selection activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18636,6 +18636,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -18645,11 +18650,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.23622047244094491" bottom="0.55118110236220474" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
